--- a/trunk/src/ontology/immunology/TLR8.xlsx
+++ b/trunk/src/ontology/immunology/TLR8.xlsx
@@ -23,6 +23,1265 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="456">
   <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
+  </si>
+  <si>
+    <t>TLR802</t>
+  </si>
+  <si>
+    <t>TLR8 mapk signaling</t>
+  </si>
+  <si>
+    <t>TLR8vssRNAmIRK4IK1pptf6</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreadsheet id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5 ubiquitinated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5ubIRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5ub+IRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006468 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF5</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR8dvssRNAmIRK4IK1pptf6IRF5ub-&gt;TLR8dvssRNAmIRK4IK1pptf6+IRF5ub </t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubb and E3l of tf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of IRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF5ub +IF5ub    -&gt;IF5ubIF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phom of IF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF5ubIF5ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF5ubIF5ub translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlsb of IF5ubIF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR803</t>
+  </si>
+  <si>
+    <t>TLR8 IRF5 signaling</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ubiquitinated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF7p +IF7p    -&gt;IF7pIF7p </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phom of IF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp locate in cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IF7pIF7p </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlsb of IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF7</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>protein homodimerization process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear localization sequence binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1+tank+IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TFBD of tank </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFDBp located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in  endo cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of irfp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+  </si>
+  <si>
+    <t>TLR9dvssRNAm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene product</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000002049</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7 phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">post transcriptional modification </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p+IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modifiction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043241 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdsb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAcomplex dimer + myd88</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmcomplex dimer + IRAk4</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmIRK4  complex  +IRAK1</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is phosphorilated</t>
+  </si>
+  <si>
+    <t>complex modified</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>intrendo</t>
+  </si>
+  <si>
+    <t>ssRNA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR8+TLR7 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IRK1p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IRK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">anna amria </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses entities from </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>File TLR901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>Uses entities from</t>
+  </si>
+  <si>
+    <t>File1</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
+  </si>
+  <si>
+    <t>single strand viral sequence</t>
+  </si>
+  <si>
+    <t>nucleic acid</t>
+  </si>
+  <si>
+    <t>SO:0001199</t>
+  </si>
+  <si>
+    <t>gene product</t>
+  </si>
+  <si>
+    <t>protein complex</t>
+  </si>
+  <si>
+    <t>PRO?</t>
+  </si>
+  <si>
+    <t>IRK4</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
+  </si>
+  <si>
+    <t>ring like domain binding process</t>
+  </si>
+  <si>
+    <t>pk63ub</t>
+  </si>
+  <si>
+    <t>protein K63-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0070534</t>
+  </si>
+  <si>
+    <t>pK48ub</t>
+  </si>
+  <si>
+    <t>protein K48-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>ppub</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>L-lysine at position 63 of a protein</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Ring-like domain</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>protsb of IKBpK48ub</t>
+  </si>
+  <si>
+    <t>ubdpcp located in cyto</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>tak1+tab1+tab2+tab3</t>
+  </si>
+  <si>
+    <t>nemo+Ikka+IKKb</t>
+  </si>
+  <si>
+    <t>CC in GO</t>
+  </si>
+  <si>
+    <t>IKB +NFKB</t>
+  </si>
+  <si>
+    <t>NFKB ??</t>
+  </si>
+  <si>
+    <t>p50+p65</t>
+  </si>
+  <si>
+    <t>Ubc13+Uev1A</t>
+  </si>
+  <si>
+    <t>TLR801</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8 nfKb signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toll like receptor 8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001159</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF00097</t>
+  </si>
+  <si>
+    <t>Zfn</t>
+  </si>
+  <si>
+    <t>zinc finer domain</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>sf of IRK1pptf6</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t>Intrinsic to endosome</t>
+  </si>
+  <si>
+    <t>GO:0031302</t>
+  </si>
+  <si>
+    <t>endo</t>
+  </si>
+  <si>
+    <t>endosome</t>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
+  </si>
+  <si>
+    <t>GO:?</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>pop located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1 phosporilate pel  part of a complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</t>
+  </si>
+  <si>
+    <t>E3l of pelp and ubb of IRK1</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>psdb of tf6pub</t>
+  </si>
+  <si>
+    <t>zfbd located in cyto</t>
+  </si>
+  <si>
+    <t>protein aminoacid phosphoriltion</t>
+  </si>
+  <si>
+    <t>GO:0006468</t>
+  </si>
+  <si>
+    <t>pcd</t>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+  </si>
+  <si>
+    <t>GO:0043241</t>
+  </si>
+  <si>
+    <t>Fhabp</t>
+  </si>
+  <si>
+    <t>fha domain binding process</t>
+  </si>
+  <si>
+    <t>traf domain binding process</t>
+  </si>
+  <si>
+    <t>ankdb</t>
+  </si>
+  <si>
+    <t>ANK domain Binding process</t>
+  </si>
+  <si>
+    <t>rhdb</t>
+  </si>
+  <si>
+    <t>RHD domain binding process</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
     <t>ANK</t>
   </si>
   <si>
@@ -258,1265 +1517,6 @@
   </si>
   <si>
     <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
-  </si>
-  <si>
-    <t>protsb of IKBpK48ub</t>
-  </si>
-  <si>
-    <t>ubdpcp located in cyto</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>tak1+tab1+tab2+tab3</t>
-  </si>
-  <si>
-    <t>nemo+Ikka+IKKb</t>
-  </si>
-  <si>
-    <t>CC in GO</t>
-  </si>
-  <si>
-    <t>IKB +NFKB</t>
-  </si>
-  <si>
-    <t>NFKB ??</t>
-  </si>
-  <si>
-    <t>p50+p65</t>
-  </si>
-  <si>
-    <t>Ubc13+Uev1A</t>
-  </si>
-  <si>
-    <t>TLR801</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8 nfKb signaling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toll like receptor 8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001159</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF00097</t>
-  </si>
-  <si>
-    <t>Zfn</t>
-  </si>
-  <si>
-    <t>zinc finer domain</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>sf of IRK1pptf6</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t>Intrinsic to endosome</t>
-  </si>
-  <si>
-    <t>GO:0031302</t>
-  </si>
-  <si>
-    <t>endo</t>
-  </si>
-  <si>
-    <t>endosome</t>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
-  </si>
-  <si>
-    <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
-  </si>
-  <si>
-    <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
-  </si>
-  <si>
-    <t>pop located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1 phosporilate pel  part of a complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</t>
-  </si>
-  <si>
-    <t>E3l of pelp and ubb of IRK1</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>psdb of tf6pub</t>
-  </si>
-  <si>
-    <t>zfbd located in cyto</t>
-  </si>
-  <si>
-    <t>protein aminoacid phosphoriltion</t>
-  </si>
-  <si>
-    <t>GO:0006468</t>
-  </si>
-  <si>
-    <t>pcd</t>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-  </si>
-  <si>
-    <t>GO:0043241</t>
-  </si>
-  <si>
-    <t>Fhabp</t>
-  </si>
-  <si>
-    <t>fha domain binding process</t>
-  </si>
-  <si>
-    <t>traf domain binding process</t>
-  </si>
-  <si>
-    <t>ankdb</t>
-  </si>
-  <si>
-    <t>ANK domain Binding process</t>
-  </si>
-  <si>
-    <t>rhdb</t>
-  </si>
-  <si>
-    <t>RHD domain binding process</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
-  </si>
-  <si>
-    <t>ring like domain binding process</t>
-  </si>
-  <si>
-    <t>pk63ub</t>
-  </si>
-  <si>
-    <t>protein K63-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0070534</t>
-  </si>
-  <si>
-    <t>pK48ub</t>
-  </si>
-  <si>
-    <t>protein K48-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>ppub</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>L-lysine at position 63 of a protein</t>
-  </si>
-  <si>
-    <t>K48</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>Ring-like domain</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAcomplex dimer + myd88</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmcomplex dimer + IRAk4</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmIRK4  complex  +IRAK1</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is phosphorilated</t>
-  </si>
-  <si>
-    <t>complex modified</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>intrendo</t>
-  </si>
-  <si>
-    <t>ssRNA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TLR8+TLR7 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IRK1p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IRK1pp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">anna amria </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses entities from </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>File TLR901</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>AMM</t>
-  </si>
-  <si>
-    <t>Uses entities from</t>
-  </si>
-  <si>
-    <t>File1</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
-  </si>
-  <si>
-    <t>single strand viral sequence</t>
-  </si>
-  <si>
-    <t>nucleic acid</t>
-  </si>
-  <si>
-    <t>SO:0001199</t>
-  </si>
-  <si>
-    <t>gene product</t>
-  </si>
-  <si>
-    <t>protein complex</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>protein homodimerization process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nuclear localization sequence binding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>has_part</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1-Tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1+tank+IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TFBD of tank </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFDBp located in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in  endo cyto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>conformational change of irfp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcompxda</t>
-  </si>
-  <si>
-    <t>TLR9dvssRNAm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene product</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000002049</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7 phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">post transcriptional modification </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p+IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modifiction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcompxda</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043241 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdsb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>molecular function</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF5</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLR8dvssRNAmIRK4IK1pptf6IRF5ub-&gt;TLR8dvssRNAmIRK4IK1pptf6+IRF5ub </t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubb and E3l of tf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub located in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>conformational change of IRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF5ub +IF5ub    -&gt;IF5ubIF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phom of IF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF5ubIF5ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF5ubIF5ub translocate to nucleus   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlsb of IF5ubIF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR803</t>
-  </si>
-  <si>
-    <t>TLR8 IRF5 signaling</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ubiquitinated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF7p +IF7p    -&gt;IF7pIF7p </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phom of IF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phomp locate in cyto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IF7pIF7p </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlsb of IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF7</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
-  </si>
-  <si>
-    <t>TLR802</t>
-  </si>
-  <si>
-    <t>TLR8 mapk signaling</t>
-  </si>
-  <si>
-    <t>TLR8vssRNAmIRK4IK1pptf6</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spreadsheet id </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5 ubiquitinated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5ubIRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5ub+IRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006468 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phomp</t>
   </si>
 </sst>
 </file>
@@ -2005,35 +2005,35 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C2" s="4">
         <v>38672</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2099,19 +2099,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2125,16 +2125,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2157,189 +2157,189 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="26">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="26">
       <c r="A17" s="1" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="26">
       <c r="A18" s="1" t="s">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="52">
       <c r="A19" s="1" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="78">
       <c r="A20" s="1" t="s">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="52">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2361,209 +2361,209 @@
     </row>
     <row r="28" spans="1:6" ht="52">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="26">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>377</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>384</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>388</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>389</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>392</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>393</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>394</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>395</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>396</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>397</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>398</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>401</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>402</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2571,221 +2571,221 @@
     </row>
     <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>404</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="91">
       <c r="A49" s="1" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>405</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>406</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2821,237 +2821,237 @@
     </row>
     <row r="57" spans="1:6" ht="26">
       <c r="A57" s="1" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="26">
       <c r="A58" s="1" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="39">
       <c r="A64" s="5" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>115</v>
+        <v>367</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="26">
       <c r="A67" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>115</v>
+        <v>367</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3059,605 +3059,605 @@
     </row>
     <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>382</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>134</v>
+        <v>386</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>140</v>
+        <v>392</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>141</v>
+        <v>393</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="52">
       <c r="A80" s="1" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>336</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>31</v>
+        <v>426</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>32</v>
+        <v>427</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>34</v>
+        <v>429</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>36</v>
+        <v>431</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>39</v>
+        <v>434</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="26">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>140</v>
+        <v>392</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3665,32 +3665,32 @@
     </row>
     <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1</v>
+        <v>396</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>398</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3713,33 +3713,33 @@
     </row>
     <row r="114" spans="1:6" ht="26">
       <c r="A114" s="2" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>403</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="52">
       <c r="A115" s="1" t="s">
-        <v>46</v>
+        <v>441</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3755,13 +3755,13 @@
     </row>
     <row r="117" spans="1:6" ht="65">
       <c r="A117" s="1" t="s">
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3769,45 +3769,45 @@
     </row>
     <row r="118" spans="1:6" ht="65">
       <c r="A118" s="1" t="s">
-        <v>49</v>
+        <v>444</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>13</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="65">
       <c r="A119" s="6" t="s">
-        <v>51</v>
+        <v>446</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>52</v>
+        <v>447</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="121" spans="1:6" ht="65">
       <c r="A121" s="1" t="s">
-        <v>53</v>
+        <v>448</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3829,13 +3829,13 @@
     </row>
     <row r="122" spans="1:6" ht="78">
       <c r="A122" s="1" t="s">
-        <v>54</v>
+        <v>449</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>85</v>
+        <v>337</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3843,13 +3843,13 @@
     </row>
     <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3857,29 +3857,29 @@
     </row>
     <row r="124" spans="1:6" ht="39">
       <c r="A124" s="1" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>89</v>
+        <v>341</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="52">
       <c r="A125" s="1" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>413</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3887,61 +3887,61 @@
     </row>
     <row r="126" spans="1:6" ht="65">
       <c r="A126" s="1" t="s">
-        <v>19</v>
+        <v>414</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>416</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="65">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>119</v>
+        <v>371</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>122</v>
+        <v>374</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>124</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>21</v>
+        <v>416</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3949,29 +3949,29 @@
     </row>
     <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3979,13 +3979,13 @@
     </row>
     <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>22</v>
+        <v>417</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3993,13 +3993,13 @@
     </row>
     <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>25</v>
+        <v>420</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>26</v>
+        <v>421</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4007,13 +4007,13 @@
     </row>
     <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>28</v>
+        <v>423</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4021,13 +4021,13 @@
     </row>
     <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>29</v>
+        <v>424</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>30</v>
+        <v>425</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>56</v>
+        <v>451</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4035,13 +4035,13 @@
     </row>
     <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>57</v>
+        <v>452</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>58</v>
+        <v>453</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>59</v>
+        <v>454</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4049,13 +4049,13 @@
     </row>
     <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>61</v>
+        <v>313</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4063,13 +4063,13 @@
     </row>
     <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>335</v>
+        <v>85</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4077,13 +4077,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="143" spans="1:6" ht="65">
       <c r="A143" s="2" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="145" spans="1:6" ht="26">
       <c r="A145" s="1" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4148,21 +4148,21 @@
     <row r="146" spans="1:6" ht="26">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>72</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4184,13 +4184,13 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>72</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4222,41 +4222,41 @@
         <v>#NAME?</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>441</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>38658</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="26">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8"/>
@@ -4266,7 +4266,7 @@
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
@@ -4276,7 +4276,7 @@
     <row r="5" spans="1:6" ht="39">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="8"/>
@@ -4285,19 +4285,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4311,210 +4311,210 @@
     </row>
     <row r="8" spans="1:6" ht="26">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="52">
       <c r="A9" s="1" t="s">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="26">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="39">
       <c r="A11" s="1" t="s">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>445</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="65">
       <c r="A12" s="1" t="s">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>433</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="91">
       <c r="A13" s="1" t="s">
-        <v>434</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>435</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>362</v>
+        <v>112</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="39">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>368</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="52">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="39">
       <c r="A16" s="1" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="39">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="52">
       <c r="A18" s="1" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>454</v>
+        <v>15</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="39">
       <c r="A19" s="1" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="52">
       <c r="A20" s="1" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -4522,10 +4522,10 @@
     <row r="21" spans="1:6" ht="65">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4534,13 +4534,13 @@
     <row r="22" spans="1:6" ht="26">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -4571,33 +4571,33 @@
     </row>
     <row r="26" spans="1:6" ht="26">
       <c r="A26" s="7" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>8</v>
+        <v>403</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="91">
       <c r="A27" s="13" t="s">
-        <v>436</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>437</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>347</v>
+        <v>97</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7"/>
@@ -4605,13 +4605,13 @@
     </row>
     <row r="28" spans="1:6" ht="117">
       <c r="A28" s="1" t="s">
-        <v>438</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4619,13 +4619,13 @@
     </row>
     <row r="29" spans="1:6" ht="117">
       <c r="A29" s="1" t="s">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="30" spans="1:6" ht="65">
       <c r="A30" s="1" t="s">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4647,13 +4647,13 @@
     </row>
     <row r="31" spans="1:6" ht="26">
       <c r="A31" s="1" t="s">
-        <v>426</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>428</v>
+        <v>57</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4661,13 +4661,13 @@
     </row>
     <row r="32" spans="1:6" ht="39">
       <c r="A32" s="1" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>430</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>431</v>
+        <v>60</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -4691,28 +4691,28 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:C33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:3" ht="26">
       <c r="A1" s="7" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26">
       <c r="A2" s="1" t="s">
-        <v>420</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>421</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4">
         <v>38675</v>
@@ -4720,36 +4720,36 @@
     </row>
     <row r="3" spans="1:3" ht="26">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="26">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="39">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4759,238 +4759,238 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>447</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>447</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>448</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52">
       <c r="A9" s="1" t="s">
-        <v>449</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>450</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26">
       <c r="A10" s="1" t="s">
-        <v>451</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39">
       <c r="A11" s="1" t="s">
-        <v>422</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="52">
       <c r="A12" s="1" t="s">
-        <v>424</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39">
       <c r="A13" s="1" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>368</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52">
       <c r="A14" s="1" t="s">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39">
       <c r="A15" s="1" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39">
       <c r="A16" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="52">
       <c r="A17" s="1" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="39">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39">
       <c r="A21" s="1" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="52">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="65">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>344</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="91">
       <c r="A29" s="13" t="s">
-        <v>407</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>408</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>347</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="78">
       <c r="A30" s="1" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>412</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="91">
       <c r="A31" s="1" t="s">
-        <v>410</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="39">
       <c r="A32" s="1" t="s">
-        <v>415</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>428</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39">
       <c r="A33" s="1" t="s">
-        <v>417</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>419</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/src/ontology/immunology/TLR8.xlsx
+++ b/trunk/src/ontology/immunology/TLR8.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2180" windowWidth="21600" windowHeight="14660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TLR801" sheetId="1" r:id="rId1"/>
     <sheet name="TLR802" sheetId="2" r:id="rId2"/>
     <sheet name="TLR803" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130404" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -23,1203 +23,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="456">
   <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
-  </si>
-  <si>
-    <t>TLR802</t>
-  </si>
-  <si>
-    <t>TLR8 mapk signaling</t>
-  </si>
-  <si>
-    <t>TLR8vssRNAmIRK4IK1pptf6</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spreadsheet id </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5 ubiquitinated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5ubIRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF5ub+IRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006468 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phomp</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF5</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLR8dvssRNAmIRK4IK1pptf6IRF5ub-&gt;TLR8dvssRNAmIRK4IK1pptf6+IRF5ub </t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ubb and E3l of tf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub located in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>conformational change of IRF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF5ub +IF5ub    -&gt;IF5ubIF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phom of IF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF5ubIF5ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF5ubIF5ub translocate to nucleus   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlsb of IF5ubIF5ub</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR803</t>
-  </si>
-  <si>
-    <t>TLR8 IRF5 signaling</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ubiquitinated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF7p +IF7p    -&gt;IF7pIF7p </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phom of IF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phomp locate in cyto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IF7pIF7p </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlsb of IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF7</t>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>protein homodimerization process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nuclear localization sequence binding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>has_part</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1-Tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1+tank+IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TFBD of tank </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFDBp located in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in  endo cyto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>conformational change of irfp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcompxda</t>
-  </si>
-  <si>
-    <t>TLR9dvssRNAm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene product</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000002049</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7 phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">post transcriptional modification </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p+IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modifiction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcompxda</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043241 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdsb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>molecular function</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAcomplex dimer + myd88</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmcomplex dimer + IRAk4</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmIRK4  complex  +IRAK1</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is phosphorilated</t>
-  </si>
-  <si>
-    <t>complex modified</t>
-  </si>
-  <si>
-    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>intrendo</t>
-  </si>
-  <si>
-    <t>ssRNA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TLR8+TLR7 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IK1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IRK1p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dvssRNAmIRK4IRK1pp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">anna amria </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Uses entities from </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>File TLR901</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>AMM</t>
-  </si>
-  <si>
-    <t>Uses entities from</t>
-  </si>
-  <si>
-    <t>File1</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
-  </si>
-  <si>
-    <t>single strand viral sequence</t>
-  </si>
-  <si>
-    <t>nucleic acid</t>
-  </si>
-  <si>
-    <t>SO:0001199</t>
-  </si>
-  <si>
-    <t>gene product</t>
-  </si>
-  <si>
-    <t>protein complex</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
-  </si>
-  <si>
-    <t>ring like domain binding process</t>
-  </si>
-  <si>
-    <t>pk63ub</t>
-  </si>
-  <si>
-    <t>protein K63-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0070534</t>
-  </si>
-  <si>
-    <t>pK48ub</t>
-  </si>
-  <si>
-    <t>protein K48-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>ppub</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>L-lysine at position 63 of a protein</t>
-  </si>
-  <si>
-    <t>K48</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>Ring-like domain</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>protsb of IKBpK48ub</t>
-  </si>
-  <si>
-    <t>ubdpcp located in cyto</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>tak1+tab1+tab2+tab3</t>
-  </si>
-  <si>
-    <t>nemo+Ikka+IKKb</t>
-  </si>
-  <si>
-    <t>CC in GO</t>
-  </si>
-  <si>
-    <t>IKB +NFKB</t>
-  </si>
-  <si>
-    <t>NFKB ??</t>
-  </si>
-  <si>
-    <t>p50+p65</t>
-  </si>
-  <si>
-    <t>Ubc13+Uev1A</t>
-  </si>
-  <si>
-    <t>TLR801</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8 nfKb signaling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toll like receptor 8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001159</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF00097</t>
-  </si>
-  <si>
-    <t>Zfn</t>
-  </si>
-  <si>
-    <t>zinc finer domain</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>sf of IRK1pptf6</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t>Intrinsic to endosome</t>
-  </si>
-  <si>
-    <t>GO:0031302</t>
-  </si>
-  <si>
-    <t>endo</t>
-  </si>
-  <si>
-    <t>endosome</t>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
-  </si>
-  <si>
-    <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
-  </si>
-  <si>
-    <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
+    <t>ddb of MyD88 in TLR8dissRNAm and of IRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TLR8dissRNAmIRK4+IRK1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>-&gt; TLR8dissRNAmIRK4IK1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dissRNAmIRK4IK1-&gt;TLR8dissRNAmIRK4IK1p   (Thr 387)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dissRNAmIRK4K1p-&gt;TLR8dissRNAmIRK4IK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dissRNAmIRK4IK1pp+tf6-&gt;TLR8dissRNAmIRK4IK1pptf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dissRNAmIRK4IK1pptf6-&gt;TLR8dissRNAmIRK4+IRK1pptf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pK48ub located in cyto</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
+  </si>
+  <si>
+    <t>sf of IKBpK48ub</t>
+  </si>
+  <si>
+    <t>pcd and rcskb located in cyto</t>
+  </si>
+  <si>
+    <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
   </si>
   <si>
     <t>pop located in cyto</t>
@@ -1471,52 +320,1203 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ddb of MyD88 in TLR8dissRNAm and of IRK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TLR8dissRNAmIRK4+IRK1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>-&gt; TLR8dissRNAmIRK4IK1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dissRNAmIRK4IK1-&gt;TLR8dissRNAmIRK4IK1p   (Thr 387)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dissRNAmIRK4K1p-&gt;TLR8dissRNAmIRK4IK1pp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dissRNAmIRK4IK1pp+tf6-&gt;TLR8dissRNAmIRK4IK1pptf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR8dissRNAmIRK4IK1pptf6-&gt;TLR8dissRNAmIRK4+IRK1pptf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pK48ub located in cyto</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
-  </si>
-  <si>
-    <t>sf of IKBpK48ub</t>
-  </si>
-  <si>
-    <t>pcd and rcskb located in cyto</t>
-  </si>
-  <si>
-    <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Ring-like domain</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>protsb of IKBpK48ub</t>
+  </si>
+  <si>
+    <t>ubdpcp located in cyto</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>tak1+tab1+tab2+tab3</t>
+  </si>
+  <si>
+    <t>nemo+Ikka+IKKb</t>
+  </si>
+  <si>
+    <t>CC in GO</t>
+  </si>
+  <si>
+    <t>IKB +NFKB</t>
+  </si>
+  <si>
+    <t>NFKB ??</t>
+  </si>
+  <si>
+    <t>p50+p65</t>
+  </si>
+  <si>
+    <t>Ubc13+Uev1A</t>
+  </si>
+  <si>
+    <t>TLR801</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8 nfKb signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toll like receptor 8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001159</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF00097</t>
+  </si>
+  <si>
+    <t>Zfn</t>
+  </si>
+  <si>
+    <t>zinc finer domain</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>sf of IRK1pptf6</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t>Intrinsic to endosome</t>
+  </si>
+  <si>
+    <t>GO:0031302</t>
+  </si>
+  <si>
+    <t>endo</t>
+  </si>
+  <si>
+    <t>endosome</t>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
+  </si>
+  <si>
+    <t>GO:?</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>Uses entities from</t>
+  </si>
+  <si>
+    <t>File1</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
+  </si>
+  <si>
+    <t>single strand viral sequence</t>
+  </si>
+  <si>
+    <t>nucleic acid</t>
+  </si>
+  <si>
+    <t>SO:0001199</t>
+  </si>
+  <si>
+    <t>gene product</t>
+  </si>
+  <si>
+    <t>protein complex</t>
+  </si>
+  <si>
+    <t>PRO?</t>
+  </si>
+  <si>
+    <t>IRK4</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
+  </si>
+  <si>
+    <t>ring like domain binding process</t>
+  </si>
+  <si>
+    <t>pk63ub</t>
+  </si>
+  <si>
+    <t>protein K63-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0070534</t>
+  </si>
+  <si>
+    <t>pK48ub</t>
+  </si>
+  <si>
+    <t>protein K48-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>ppub</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>L-lysine at position 63 of a protein</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043241 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdsb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAcomplex dimer + myd88</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmcomplex dimer + IRAk4</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmIRK4  complex  +IRAK1</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is phosphorilated</t>
+  </si>
+  <si>
+    <t>complex modified</t>
+  </si>
+  <si>
+    <t>TLR7dvssRNAmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>intrendo</t>
+  </si>
+  <si>
+    <t>ssRNA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR8+TLR7 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IRK1p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IRK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">anna amria </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses entities from </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>File TLR901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlsb of IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF7</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>protein homodimerization process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear localization sequence binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1+tank+IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TFBD of tank </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFDBp located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in  endo cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of irfp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+  </si>
+  <si>
+    <t>TLR9dvssRNAm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene product</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000002049</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7 phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">post transcriptional modification </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p+IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modifiction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
+  </si>
+  <si>
+    <t>TLR802</t>
+  </si>
+  <si>
+    <t>TLR8 mapk signaling</t>
+  </si>
+  <si>
+    <t>TLR8vssRNAmIRK4IK1pptf6</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreadsheet id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5 ubiquitinated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5ubIRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF5ub+IRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006468 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR8dvssRNAmIR4IK1pptf6 and DDb of IF5</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5-&gt;TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR8dvssRNAmIRK4IK1pptf6IRF5ub-&gt;TLR8dvssRNAmIRK4IK1pptf6+IRF5ub </t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubb and E3l of tf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of IRF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF5ub +IF5ub    -&gt;IF5ubIF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phom of IF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF5ubIF5ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF5ubIF5ub translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlsb of IF5ubIF5ub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR803</t>
+  </si>
+  <si>
+    <t>TLR8 IRF5 signaling</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6+IRF5</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ub</t>
+  </si>
+  <si>
+    <t>TLR8dvssRNAmIRK4IK1pptf6IRF5ubiquitinated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF7p +IF7p    -&gt;IF7pIF7p </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phom of IF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp locate in cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IF7pIF7p </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1994,7 +1994,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A135" workbookViewId="0">
@@ -2005,35 +2004,35 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>329</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4">
         <v>38672</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2047,10 +2046,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2099,19 +2098,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2125,16 +2124,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2157,189 +2156,189 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>331</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="26">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="26">
       <c r="A17" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>347</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="26">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="52">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="78">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="52">
       <c r="A25" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2347,13 +2346,13 @@
     </row>
     <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2361,209 +2360,209 @@
     </row>
     <row r="28" spans="1:6" ht="52">
       <c r="A28" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="26">
       <c r="A29" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>414</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>418</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>420</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>421</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>422</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>423</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>424</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>425</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>426</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2571,221 +2570,221 @@
     </row>
     <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>309</v>
+        <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="91">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>293</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>431</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>432</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2793,13 +2792,13 @@
     </row>
     <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>159</v>
+        <v>309</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2807,13 +2806,13 @@
     </row>
     <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2821,237 +2820,237 @@
     </row>
     <row r="57" spans="1:6" ht="26">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="26">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>345</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>346</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>347</v>
+        <v>143</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>348</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>350</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>353</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="39">
       <c r="A64" s="5" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>362</v>
+        <v>158</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>364</v>
+        <v>160</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>365</v>
+        <v>161</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>366</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="26">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>186</v>
+        <v>336</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3059,605 +3058,605 @@
     </row>
     <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>382</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>385</v>
+        <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>387</v>
+        <v>23</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>388</v>
+        <v>24</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>389</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>391</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>392</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>394</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="52">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>89</v>
+        <v>368</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>426</v>
+        <v>62</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>427</v>
+        <v>63</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>428</v>
+        <v>64</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>429</v>
+        <v>65</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>430</v>
+        <v>66</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>431</v>
+        <v>67</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>432</v>
+        <v>68</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>433</v>
+        <v>69</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="26">
       <c r="A95" s="1" t="s">
-        <v>435</v>
+        <v>71</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>433</v>
+        <v>69</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>437</v>
+        <v>73</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>392</v>
+        <v>28</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>291</v>
+        <v>87</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3665,32 +3664,32 @@
     </row>
     <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>396</v>
+        <v>32</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>397</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>398</v>
+        <v>34</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>399</v>
+        <v>35</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3713,33 +3712,33 @@
     </row>
     <row r="114" spans="1:6" ht="26">
       <c r="A114" s="2" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>402</v>
+        <v>38</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>403</v>
+        <v>39</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>404</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="52">
       <c r="A115" s="1" t="s">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3755,13 +3754,13 @@
     </row>
     <row r="117" spans="1:6" ht="65">
       <c r="A117" s="1" t="s">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3769,45 +3768,45 @@
     </row>
     <row r="118" spans="1:6" ht="65">
       <c r="A118" s="1" t="s">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>407</v>
+        <v>43</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="65">
       <c r="A119" s="6" t="s">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>410</v>
+        <v>46</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3815,13 +3814,13 @@
     </row>
     <row r="121" spans="1:6" ht="65">
       <c r="A121" s="1" t="s">
-        <v>448</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3829,13 +3828,13 @@
     </row>
     <row r="122" spans="1:6" ht="78">
       <c r="A122" s="1" t="s">
-        <v>449</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3843,13 +3842,13 @@
     </row>
     <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>450</v>
+        <v>5</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>339</v>
+        <v>135</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3857,29 +3856,29 @@
     </row>
     <row r="124" spans="1:6" ht="39">
       <c r="A124" s="1" t="s">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>342</v>
+        <v>138</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>343</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="52">
       <c r="A125" s="1" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>412</v>
+        <v>48</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>413</v>
+        <v>49</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3887,61 +3886,61 @@
     </row>
     <row r="126" spans="1:6" ht="65">
       <c r="A126" s="1" t="s">
-        <v>414</v>
+        <v>50</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>415</v>
+        <v>51</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>368</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="65">
       <c r="A127" s="1" t="s">
-        <v>369</v>
+        <v>165</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>372</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>373</v>
+        <v>169</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>374</v>
+        <v>170</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>378</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3949,29 +3948,29 @@
     </row>
     <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>379</v>
+        <v>15</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3979,13 +3978,13 @@
     </row>
     <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>417</v>
+        <v>53</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>418</v>
+        <v>54</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3993,13 +3992,13 @@
     </row>
     <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>420</v>
+        <v>56</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>421</v>
+        <v>57</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4007,13 +4006,13 @@
     </row>
     <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>422</v>
+        <v>58</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>423</v>
+        <v>59</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4021,13 +4020,13 @@
     </row>
     <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>425</v>
+        <v>61</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4035,13 +4034,13 @@
     </row>
     <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>452</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>453</v>
+        <v>8</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4049,13 +4048,13 @@
     </row>
     <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>455</v>
+        <v>10</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>314</v>
+        <v>110</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4063,13 +4062,13 @@
     </row>
     <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4077,13 +4076,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4115,10 +4114,10 @@
     </row>
     <row r="143" spans="1:6" ht="65">
       <c r="A143" s="2" t="s">
-        <v>319</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>320</v>
+        <v>116</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4135,10 +4134,10 @@
     </row>
     <row r="145" spans="1:6" ht="26">
       <c r="A145" s="1" t="s">
-        <v>321</v>
+        <v>117</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4148,21 +4147,21 @@
     <row r="146" spans="1:6" ht="26">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>324</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>325</v>
+        <v>121</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4171,10 +4170,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>327</v>
+        <v>123</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4184,19 +4183,19 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>324</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -4207,7 +4206,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
@@ -4222,41 +4220,41 @@
         <v>#NAME?</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="C2" s="4">
         <v>38658</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="26">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8"/>
@@ -4266,7 +4264,7 @@
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>383</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="8"/>
@@ -4276,7 +4274,7 @@
     <row r="5" spans="1:6" ht="39">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="8"/>
@@ -4285,19 +4283,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4311,210 +4309,210 @@
     </row>
     <row r="8" spans="1:6" ht="26">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>385</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="52">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>389</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="26">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>393</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="39">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="65">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="91">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="39">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>396</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="52">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="39">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="39">
       <c r="A17" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>389</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="52">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>411</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="39">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>413</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>370</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="52">
       <c r="A20" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>92</v>
+        <v>371</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -4522,10 +4520,10 @@
     <row r="21" spans="1:6" ht="65">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -4534,13 +4532,13 @@
     <row r="22" spans="1:6" ht="26">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -4571,33 +4569,33 @@
     </row>
     <row r="26" spans="1:6" ht="26">
       <c r="A26" s="7" t="s">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>402</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>403</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="91">
       <c r="A27" s="13" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7"/>
@@ -4605,13 +4603,13 @@
     </row>
     <row r="28" spans="1:6" ht="117">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>346</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4619,13 +4617,13 @@
     </row>
     <row r="29" spans="1:6" ht="117">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -4633,13 +4631,13 @@
     </row>
     <row r="30" spans="1:6" ht="65">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>381</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4647,13 +4645,13 @@
     </row>
     <row r="31" spans="1:6" ht="26">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>453</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4661,13 +4659,13 @@
     </row>
     <row r="32" spans="1:6" ht="39">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -4676,7 +4674,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -4687,7 +4685,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" workbookViewId="0">
@@ -4698,21 +4695,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>404</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="C2" s="4">
         <v>38675</v>
@@ -4720,36 +4717,36 @@
     </row>
     <row r="3" spans="1:3" ht="26">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="26">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>383</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="39">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4759,244 +4756,244 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>407</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>408</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="26">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>410</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>448</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="52">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>450</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>396</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39">
       <c r="A16" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>389</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="52">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>411</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="39">
       <c r="A18" s="1" t="s">
-        <v>394</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26">
       <c r="A19" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="26">
       <c r="A20" s="1" t="s">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>363</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>413</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="52">
       <c r="A22" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>92</v>
+        <v>371</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="65">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>96</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="91">
       <c r="A29" s="13" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="78">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="91">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>436</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>440</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="39">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>443</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>444</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
